--- a/medicine/Mort/Décès_en_1960/Décès_en_1960.xlsx
+++ b/medicine/Mort/Décès_en_1960/Décès_en_1960.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1960</t>
+          <t>Décès_en_1960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1960</t>
+          <t>Décès_en_1960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Francesco Agnesotti, peintre italien (° 1882).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Francesco Agnesotti, peintre italien (° 1882).
 Colette Allendy, peintre, illustratrice et galeriste française (° 1895).
 Jacques Brissaud, peintre, sculpteur et lithographe français (° 1880).
 Jean Engel, peintre français (° 15 janvier 1876).
 Raymond Kanelba, peintre polonais (° 1897).
 Istvan Lukacs, footballeur hongrois naturalisé français (° 14 octobre 1912).
 Dave Marsh, coureur cycliste britannique (° 28 décembre 1894).
-Sami Shawa, violoniste syrien (° 1887).
-Janvier
-? janvier : Jean Lacassagne, médecin français (° 2 janvier 1886).
+Sami Shawa, violoniste syrien (° 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>? janvier : Jean Lacassagne, médecin français (° 2 janvier 1886).
 1er janvier :
 Paul-Émile Bécat, peintre, graveur et dessinateur français (° 2 février 1885).
 William Bowman, réalisateur et acteur américain (° 27 février 1884).
@@ -563,9 +614,43 @@
 30 janvier : Jacques de Menasce, pianiste et compositeur autrichien naturalisé américain (° 19 août 1905).
 31 janvier :
 Auguste Herbin,  peintre français (° 29 avril 1882).
-Émile Lopez, footballeur français (° 21 mai 1908).
-Février
-4 février :
+Émile Lopez, footballeur français (° 21 mai 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février :
 Edmond-Édouard Lapeyre, peintre, illustrateur et affichiste français (° 17 novembre 1880).
 Dossibai Patell, médecin indienne (° 16 octobre 1881).
 8 février : Maurice Marinot, peintre et artisan verrier français (° 20 mars 1882).
@@ -583,24 +668,126 @@
 Cécile Paul-Baudry, peintre française (° 30 décembre 1879).
 23 février : Alexandre Lippmann, escrimeur et peintre français (° 11 juin 1881).
 24 février : Pierre Daye, journaliste et écrivain belge (° 24 juin 1892).
-29 février : Amadeo Sabattini, pharmacien, médecin et homme politique argentin (° 29 mai 1892).
-Mars
-6 mars : Jean Puy, peintre français (° 8 novembre 1876).
+29 février : Amadeo Sabattini, pharmacien, médecin et homme politique argentin (° 29 mai 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 mars : Jean Puy, peintre français (° 8 novembre 1876).
 9 mars : Paul Jacoulet, peintre et graveur français (° 23 janvier 1896).
 13 mars : Jacques Duthoo, peintre abstrait, céramiste et graveur français (° 19 février 1910).
 16 mars : Gérard Saint, coureur cycliste français (° 11 juillet 1935).
 21 mars : Charles-Lucien Moulin, peintre français (° 6 janvier 1869).
-23 mars : Ludwig Bergsträsser, historien, professeur de science politique et homme politique allemand (° 23 février 1883).
-Avril
-3 avril : Norodom Suramarit, roi du Cambodge (° 6 mars 1896).
+23 mars : Ludwig Bergsträsser, historien, professeur de science politique et homme politique allemand (° 23 février 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Norodom Suramarit, roi du Cambodge (° 6 mars 1896).
 17 avril : Eddie Cochran, chanteur de rock américain (° 3 octobre 1938).
 20 avril : Pannalal Ghosh, flûtiste indien (° 31 juillet 1911).
 21 avril : Lucien Lantier, peintre français (° 27 juillet 1879).
 24 avril : George Relph, acteur anglais (° 27 janvier 1888).
 25 avril : Hope Emerson, actrice américaine (° 29 octobre 1897).
-28 avril : Anton Pannekoek, astronome et militant communiste hollandais (° 2 janvier 1873).
-Mai
-4 mai : Gunnar Olsson, footballeur suédois (° 27 mars 1901).
+28 avril : Anton Pannekoek, astronome et militant communiste hollandais (° 2 janvier 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4 mai : Gunnar Olsson, footballeur suédois (° 27 mars 1901).
 11 mai : John Davison Rockefeller Junior, milliardaire américain (° 29 janvier 1874).
 12 mai : Armstrong Gibbs, compositeur anglais (° 10 août 1889).
 14 mai : Andrée Lavieille, peintre française (° 11 septembre 1877).
@@ -616,17 +803,85 @@
 George Zucco, acteur et metteur en scène britannique (° 11 janvier 1886).
 30 mai :
 Léon Colombier, peintre français (° 4 janvier 1869).
-Boris Pasternak, écrivain russe puis soviétique (° 10 février 1890).
-Juin
-1er juin : Frans Smeers, peintre belge (° 28 janvier 1873).
+Boris Pasternak, écrivain russe puis soviétique (° 10 février 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Frans Smeers, peintre belge (° 28 janvier 1873).
 12 juin : Jack Richardson, acteur américain (° 18 novembre 1870).
 16 juin : Francis Parker Yockey, essayiste et théoricien politique américain (° 18 septembre 1917).
 17 juin : Pierre Reverdy, poète français (° 11 septembre 1889).
 22 juin : Wolfgang Seuss, garde de camp de concentration allemand (° 1907).
 27 juin : Harry Pollitt, homme politique britannique (° 22 novembre 1890).
-28 juin : Móric Esterházy, homme politique hongrois (° 27 avril 1881).
-Juillet
-9 juillet : Edward Hill, compositeur américain (° 9 septembre 1872).
+28 juin : Móric Esterházy, homme politique hongrois (° 27 avril 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9 juillet : Edward Hill, compositeur américain (° 9 septembre 1872).
 10 juillet : Charles Forget, peintre et graveur français (° 26 janvier 1886).
 11 juillet : Jesús Arámbarri, compositeur et chef d'orchestre espagnol d'origine basque (° 13 avril 1902).
 14 juillet : Fernande Barrey, modèle et peintre française (° 9 janvier 1893).
@@ -634,9 +889,43 @@
 Søren Andersen, footballeur danois (° 16 juillet 1937).
 John P. Marquart, romancier américain.
 25 juillet : Dennis Hoey, acteur et dramaturge anglais (° 30 mars 1893).
-26 juillet : Georges Rapin alias Monsieur Bill, criminel français (guillotiné) (° 31 août 1936).
-Août
-2 août : Jules Lowie, coureur cycliste belge (° 6 octobre 1913).
+26 juillet : Georges Rapin alias Monsieur Bill, criminel français (guillotiné) (° 31 août 1936).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Jules Lowie, coureur cycliste belge (° 6 octobre 1913).
 6 août :
 Meg Cléry, peintre française (° 31 août 1874).
 Charles Schneider, industriel français (° 28 juin 1898).
@@ -652,9 +941,43 @@
 22 août : Georges Sauveur Maury, peintre français (° 6 octobre 1872).
 26 août :
 Edmond Blampied, lithographe, caricaturiste, dessinateur, illustrateur de livres, aquarelliste, peintre, sculpteur et graveur jersiais (° 30 mars 1886).
-Knud Enemark Jensen, coureur cycliste danois (° 30 novembre 1936).
-Septembre
-1er septembre : André Jacques, peintre et graveur français (° 31 mai 1880).
+Knud Enemark Jensen, coureur cycliste danois (° 30 novembre 1936).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : André Jacques, peintre et graveur français (° 31 mai 1880).
 4 septembre : Gustave Pelgrims, footballeur belge (° 14 juin 1878).
 5 septembre :
 Edgard Bouillette, peintre français (° 15 février 1872).
@@ -668,9 +991,43 @@
 17 septembre : Paul Ledoux, peintre, graveur et illustrateur français (° 18 novembre 1884).
 21 septembre : Mahmoud Harbi, homme politique de la Côte française des Somalis (° 1921).
 22 septembre : Mélanie Klein, psychanalyste britannique d'origine autrichienne (° 30 mars 1882).
-26 septembre : Emily Post, femme de lettres américaine (° 27 octobre 1872).
-Octobre
-2 octobre : Jaroslav Doubrava, compositeur, peintre et pédagogue tchèque (° 25 avril 1909).
+26 septembre : Emily Post, femme de lettres américaine (° 27 octobre 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Jaroslav Doubrava, compositeur, peintre et pédagogue tchèque (° 25 avril 1909).
 6 octobre : Charles Curtelin, peintre français (° 5 mai 1859).
 12 octobre : Inejirō Asanuma, homme politique japonais (° 27 décembre 1898).
 13 octobre : Arthur Wauters, homme politique belge (° 12 août 1890).
@@ -678,9 +1035,43 @@
 19 octobre : Günter Raphael, compositeur allemand (° 30 avril 1903).
 25 octobre : José Padilla Sánchez, compositeur espagnol (° 28 mai 1889).
 29 octobre : Sreten Stojanović, sculpteur, dessinateur, aquarelliste et critique d'art serbe puis yougoslave (° 2 février 1898).
-30 octobre : Alfred Hill, compositeur, chef d'orchestre et enseignant de musique australo-néo-zélandais (° 16 décembre 1869).
-Novembre
-2 novembre : Otoya Yamaguchi, l'assassin de Inejirō Asanuma se suicide en prison (° 22 février 1943).
+30 octobre : Alfred Hill, compositeur, chef d'orchestre et enseignant de musique australo-néo-zélandais (° 16 décembre 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : Otoya Yamaguchi, l'assassin de Inejirō Asanuma se suicide en prison (° 22 février 1943).
 4 novembre : Léon Galand, peintre et illustrateur français (° 18 avril 1872).
 5 novembre :
 Ward Bond, acteur américain (° 9 avril 1903).
@@ -691,17 +1082,85 @@
 25 novembre : Shirataki Ikunosuke, peintre japonais (° 17 mars 1873).
 28 novembre : Richard Wright, écrivain américain (° 4 septembre 1908).
 29 novembre : Fortunato Depero, peintre italien (° 30 mars 1892).
-30 novembre : Eugène Soudan, avocat, juriste et homme politique belge (° 4 décembre 1880).
-Décembre
-2 décembre : Fritz August Breuhaus de Groot, architecte, ensemblier et designer allemand (°1883).
+30 novembre : Eugène Soudan, avocat, juriste et homme politique belge (° 4 décembre 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Fritz August Breuhaus de Groot, architecte, ensemblier et designer allemand (°1883).
 4 décembre : Walter Goehr, compositeur et chef d'orchestre allemand naturalisé britannique (° 28 mai 1903).
 7 décembre : Clara Haskil, pianiste suisse d'origine roumaine (° 7 janvier 1895).
 20 décembre  Henri Malançon, peintre français (° 20 décembre 1876).
 28 décembre : Philippe Panneton dit Ringuet, écrivain canadien (° 30 avril 1895).
 29 décembre : René Charles Edmond His, peintre français (° 15 février 1877).
-31 décembre : Clarence Decatur Howe, homme politique canadien (° 15 janvier 1886).
-Date précise inconnue
-Léon Noireaut, peintre français (° 31 décembre 1886).
+31 décembre : Clarence Decatur Howe, homme politique canadien (° 15 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1960</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Léon Noireaut, peintre français (° 31 décembre 1886).
 Hay Plumb, réalisateur, acteur et scénariste britannique (° 1883).</t>
         </is>
       </c>
